--- a/output/clean_data/stock_assessments_w_fao_area.xlsx
+++ b/output/clean_data/stock_assessments_w_fao_area.xlsx
@@ -13576,7 +13576,7 @@
         <v>2146</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H155" t="s">
         <v>2901</v>
@@ -13721,7 +13721,7 @@
         <v>2151</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
         <v>2901</v>
@@ -13750,7 +13750,7 @@
         <v>2152</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>2901</v>
@@ -13779,7 +13779,7 @@
         <v>2153</v>
       </c>
       <c r="G162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H162" t="s">
         <v>2901</v>
@@ -13895,7 +13895,7 @@
         <v>2157</v>
       </c>
       <c r="G166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>2900</v>
@@ -13924,7 +13924,7 @@
         <v>2158</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="s">
         <v>2900</v>
@@ -13953,7 +13953,7 @@
         <v>2159</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H168" t="s">
         <v>2901</v>
@@ -14011,7 +14011,7 @@
         <v>2160</v>
       </c>
       <c r="G170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H170" t="s">
         <v>2900</v>
@@ -14040,7 +14040,7 @@
         <v>2161</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>2900</v>
@@ -14069,7 +14069,7 @@
         <v>2162</v>
       </c>
       <c r="G172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>2900</v>
@@ -14185,7 +14185,7 @@
         <v>2166</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>2900</v>
@@ -14388,7 +14388,7 @@
         <v>2173</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H183" t="s">
         <v>2899</v>
@@ -14504,7 +14504,7 @@
         <v>2177</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187" t="s">
         <v>2900</v>
@@ -14649,7 +14649,7 @@
         <v>2180</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>2900</v>
@@ -14794,7 +14794,7 @@
         <v>2184</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>2899</v>
@@ -14823,7 +14823,7 @@
         <v>2185</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
         <v>2899</v>
@@ -14852,7 +14852,7 @@
         <v>2186</v>
       </c>
       <c r="G199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H199" t="s">
         <v>2899</v>
@@ -14968,7 +14968,7 @@
         <v>2190</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>2899</v>
@@ -15026,7 +15026,7 @@
         <v>2192</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>2900</v>
@@ -15142,7 +15142,7 @@
         <v>2195</v>
       </c>
       <c r="G209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>2900</v>
@@ -15171,7 +15171,7 @@
         <v>2196</v>
       </c>
       <c r="G210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>2900</v>
@@ -15316,7 +15316,7 @@
         <v>2198</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>2900</v>
@@ -15432,7 +15432,7 @@
         <v>2192</v>
       </c>
       <c r="G219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H219" t="s">
         <v>2900</v>
@@ -15606,7 +15606,7 @@
         <v>2204</v>
       </c>
       <c r="G225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>2900</v>
@@ -15693,7 +15693,7 @@
         <v>2192</v>
       </c>
       <c r="G228">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>2901</v>
@@ -15780,7 +15780,7 @@
         <v>2207</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>2900</v>
@@ -15896,7 +15896,7 @@
         <v>2189</v>
       </c>
       <c r="G235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>2900</v>
@@ -15925,7 +15925,7 @@
         <v>2156</v>
       </c>
       <c r="G236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H236" t="s">
         <v>2900</v>
@@ -15954,7 +15954,7 @@
         <v>2210</v>
       </c>
       <c r="G237">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>2899</v>
@@ -16070,7 +16070,7 @@
         <v>2160</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H241" t="s">
         <v>2900</v>
@@ -16099,7 +16099,7 @@
         <v>2213</v>
       </c>
       <c r="G242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>2900</v>
@@ -16186,7 +16186,7 @@
         <v>2216</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>2901</v>
@@ -16447,7 +16447,7 @@
         <v>2225</v>
       </c>
       <c r="G254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
         <v>2900</v>
@@ -16476,7 +16476,7 @@
         <v>2226</v>
       </c>
       <c r="G255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H255" t="s">
         <v>2900</v>
@@ -16505,7 +16505,7 @@
         <v>2227</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>2900</v>
@@ -16534,7 +16534,7 @@
         <v>2228</v>
       </c>
       <c r="G257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>2900</v>
@@ -16563,7 +16563,7 @@
         <v>2229</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>2900</v>
@@ -16853,7 +16853,7 @@
         <v>2239</v>
       </c>
       <c r="G268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H268" t="s">
         <v>2900</v>
@@ -16882,7 +16882,7 @@
         <v>2240</v>
       </c>
       <c r="G269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>2899</v>
@@ -16940,7 +16940,7 @@
         <v>2242</v>
       </c>
       <c r="G271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H271" t="s">
         <v>2901</v>
@@ -16998,7 +16998,7 @@
         <v>2195</v>
       </c>
       <c r="G273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>2900</v>
@@ -17027,7 +17027,7 @@
         <v>2243</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H274" t="s">
         <v>2900</v>
@@ -17056,7 +17056,7 @@
         <v>2244</v>
       </c>
       <c r="G275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>2900</v>
@@ -17085,7 +17085,7 @@
         <v>2245</v>
       </c>
       <c r="G276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>2900</v>
@@ -17114,7 +17114,7 @@
         <v>2246</v>
       </c>
       <c r="G277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="s">
         <v>2900</v>
@@ -17201,7 +17201,7 @@
         <v>2249</v>
       </c>
       <c r="G280">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>2900</v>
@@ -17259,7 +17259,7 @@
         <v>2250</v>
       </c>
       <c r="G282">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>2900</v>
@@ -17288,7 +17288,7 @@
         <v>2251</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H283" t="s">
         <v>2900</v>
@@ -17317,7 +17317,7 @@
         <v>2252</v>
       </c>
       <c r="G284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>2900</v>
@@ -17375,7 +17375,7 @@
         <v>2207</v>
       </c>
       <c r="G286">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H286" t="s">
         <v>2900</v>
@@ -17433,7 +17433,7 @@
         <v>2255</v>
       </c>
       <c r="G288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>2901</v>
@@ -17462,7 +17462,7 @@
         <v>2256</v>
       </c>
       <c r="G289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H289" t="s">
         <v>2900</v>
@@ -17810,7 +17810,7 @@
         <v>2264</v>
       </c>
       <c r="G301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>2899</v>
@@ -17897,7 +17897,7 @@
         <v>2267</v>
       </c>
       <c r="G304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="s">
         <v>2900</v>
@@ -18013,7 +18013,7 @@
         <v>2270</v>
       </c>
       <c r="G308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>2900</v>
@@ -18071,7 +18071,7 @@
         <v>2272</v>
       </c>
       <c r="G310">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H310" t="s">
         <v>2899</v>
@@ -18129,7 +18129,7 @@
         <v>2273</v>
       </c>
       <c r="G312">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>2900</v>
@@ -18187,7 +18187,7 @@
         <v>2275</v>
       </c>
       <c r="G314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H314" t="s">
         <v>2899</v>
@@ -18419,7 +18419,7 @@
         <v>2191</v>
       </c>
       <c r="G322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>2900</v>
@@ -18535,7 +18535,7 @@
         <v>2282</v>
       </c>
       <c r="G326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H326" t="s">
         <v>2901</v>
@@ -18622,7 +18622,7 @@
         <v>2283</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="s">
         <v>2899</v>
@@ -18680,7 +18680,7 @@
         <v>2146</v>
       </c>
       <c r="G331">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>2901</v>
